--- a/PKM_AL/Tasks.xlsx
+++ b/PKM_AL/Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\SOTKA_LINUX\PKM_AL\PKM_AL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B1D5FAA-EF70-4930-B3A5-01075E6360BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C75B7E-0964-4955-8485-15DBF428E229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{63B8F44D-E95B-4B5B-9D33-15985D5EB5C3}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t xml:space="preserve"> График распределения параметров по КИП (по километражу).</t>
   </si>
@@ -616,8 +616,8 @@
   <dimension ref="A1:C1006"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -699,10 +699,13 @@
       <c r="B11" s="1"/>
     </row>
     <row r="12" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="1"/>
+      <c r="B12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="3"/>
     </row>
     <row r="13" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">

--- a/PKM_AL/Tasks.xlsx
+++ b/PKM_AL/Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\SOTKA_LINUX\PKM_AL\PKM_AL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C75B7E-0964-4955-8485-15DBF428E229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E59D7845-97BA-4DF6-8EAD-06A133CA4E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{63B8F44D-E95B-4B5B-9D33-15985D5EB5C3}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t xml:space="preserve"> График распределения параметров по КИП (по километражу).</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t xml:space="preserve">Подсветка в дереве при выборе елемента. </t>
+  </si>
+  <si>
+    <t>Разработка варианта ММСД-СОТКА на JAVA</t>
   </si>
 </sst>
 </file>
@@ -616,8 +619,8 @@
   <dimension ref="A1:C1006"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -773,6 +776,9 @@
       <c r="B21" s="1"/>
     </row>
     <row r="22" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="B22" s="1"/>
     </row>
     <row r="23" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
